--- a/src/utils/Random_Employee_Data.xlsx
+++ b/src/utils/Random_Employee_Data.xlsx
@@ -54,34 +54,34 @@
     <t>Test_Field</t>
   </si>
   <si>
-    <t>Clair Goodwin-Walter</t>
-  </si>
-  <si>
-    <t>Greyson</t>
-  </si>
-  <si>
-    <t>2326</t>
-  </si>
-  <si>
-    <t>0U5N7Y</t>
-  </si>
-  <si>
-    <t>4ANRDUOZ</t>
-  </si>
-  <si>
-    <t>2035-01-03</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>1996-02-26</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <t>Hortense Green</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>8020</t>
+  </si>
+  <si>
+    <t>SWUAH0</t>
+  </si>
+  <si>
+    <t>T5YGE8UN</t>
+  </si>
+  <si>
+    <t>2028-03-08</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>1992-08-03</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
   <si>
     <t>O-</t>
@@ -123,37 +123,37 @@
     <t>Other Email</t>
   </si>
   <si>
-    <t>97656 Willow Grove</t>
-  </si>
-  <si>
-    <t>Apt. 680</t>
-  </si>
-  <si>
-    <t>Rennerton</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>21887</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>464595199094663</t>
-  </si>
-  <si>
-    <t>(716)865-9658</t>
-  </si>
-  <si>
-    <t>982-304-66148207</t>
-  </si>
-  <si>
-    <t>Deangelo_Corwin55@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ephraim89@yahoo.com</t>
+    <t>1003 Maiya Lock</t>
+  </si>
+  <si>
+    <t>Suite 322</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>79246-9408</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>40245522874107</t>
+  </si>
+  <si>
+    <t>1-251-219-341785318</t>
+  </si>
+  <si>
+    <t>1-794-735-5719961</t>
+  </si>
+  <si>
+    <t>Malinda25@hotmail.com</t>
+  </si>
+  <si>
+    <t>Curt23@gmail.com</t>
   </si>
   <si>
     <t>Company</t>
@@ -171,19 +171,19 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Blanda and Sons</t>
-  </si>
-  <si>
-    <t>National Data Associate</t>
-  </si>
-  <si>
-    <t>2021-05-08</t>
-  </si>
-  <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>Cavus peior angulus canis ventus alo cur talis omnis.</t>
+    <t>Durgan - Stokes</t>
+  </si>
+  <si>
+    <t>Investor Markets Producer</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>Traho claro conqueror totidem claudeo fugit.</t>
   </si>
   <si>
     <t>Level</t>
@@ -207,25 +207,25 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Tromp - Quigley University</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>2017-04-21</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
+    <t>Associate Degree</t>
+  </si>
+  <si>
+    <t>Kuphal - Parker University</t>
+  </si>
+  <si>
+    <t>Intranet</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2021-12-15</t>
   </si>
   <si>
     <t>Skill</t>
@@ -237,10 +237,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>input system</t>
-  </si>
-  <si>
-    <t>Argentum arbustum pecus ullus adfectus solum absorbeo vacuus reiciendis trepide.</t>
+    <t>override monitor</t>
+  </si>
+  <si>
+    <t>Testimonium consectetur accedo cumque doloribus usus circumvenio volaticus quaerat.</t>
   </si>
   <si>
     <t>Language</t>
@@ -252,7 +252,7 @@
     <t>Competency</t>
   </si>
   <si>
-    <t>JA</t>
+    <t>ES</t>
   </si>
   <si>
     <t>Basic</t>
@@ -261,7 +261,7 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>Supellex rerum ex absens deludo desino coruscus adfero perspiciatis.</t>
+    <t>Tracto tergiversatio venia ultra.</t>
   </si>
 </sst>
 </file>
